--- a/source/TestGantt2BPMN.xlsx
+++ b/source/TestGantt2BPMN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdaclin-mallek\Documents\ONEWAY\PDP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imtminesales-my.sharepoint.com/personal/sihem_daclin-mallek_mines-ales_fr/Documents/Nouveau dossier/ONEWAY/PDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E575B0B-AF9F-4D50-8A61-2D663014360D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{82CDB8CE-CF57-4C80-9730-4A004932BAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2342A63B-AF5A-4E88-9912-C29FFF3FC746}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -973,9 +973,6 @@
     <t>19d</t>
   </si>
   <si>
-    <t>12FS;13FS</t>
-  </si>
-  <si>
     <t>14FS</t>
   </si>
   <si>
@@ -986,6 +983,9 @@
   </si>
   <si>
     <t>Activitie_3.11</t>
+  </si>
+  <si>
+    <t>12FS;13FS;14FS</t>
   </si>
 </sst>
 </file>
@@ -27566,9 +27566,9 @@
   </sheetPr>
   <dimension ref="A1:O247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
@@ -28255,10 +28255,10 @@
         <v>42202</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="10"/>
@@ -28275,7 +28275,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>19</v>
@@ -28296,10 +28296,10 @@
         <v>42235</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N19" s="11"/>
       <c r="O19" s="10"/>
@@ -28316,7 +28316,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>19</v>
